--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="160">
   <si>
     <t>接口</t>
   </si>
@@ -487,6 +487,15 @@
   </si>
   <si>
     <t>判断积分等级</t>
+  </si>
+  <si>
+    <t>DaoBook.modifyBook</t>
+  </si>
+  <si>
+    <t>修改书籍详细信息</t>
+  </si>
+  <si>
+    <t>Boolean(表示成功与否)</t>
   </si>
 </sst>
 </file>
@@ -840,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1301,67 +1310,67 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="D34" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>38</v>
@@ -1369,13 +1378,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>38</v>
@@ -1383,13 +1392,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>38</v>
@@ -1397,41 +1406,41 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>38</v>
@@ -1439,55 +1448,55 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3" t="s">
+      <c r="D44" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>38</v>
@@ -1495,10 +1504,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>152</v>
@@ -1509,13 +1518,27 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="11865" windowHeight="5355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -502,7 +503,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,6 +516,18 @@
       <color rgb="FFFF0000"/>
       <name val="文泉驿正黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="文泉驿正黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -537,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -546,6 +559,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -851,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1309,7 +1328,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="4" t="s">
         <v>157</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1377,7 +1396,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1391,7 +1410,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1405,7 +1424,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1433,7 +1452,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1542,6 +1561,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="11865" windowHeight="5355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11865" windowHeight="5355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="185">
   <si>
     <t>接口</t>
   </si>
@@ -497,6 +496,81 @@
   </si>
   <si>
     <t>Boolean(表示成功与否)</t>
+  </si>
+  <si>
+    <t>score:int</t>
+  </si>
+  <si>
+    <t>获取销售总额</t>
+  </si>
+  <si>
+    <t>float(销售总额)</t>
+  </si>
+  <si>
+    <t>DaoOrder.getTotalSaleAmount</t>
+  </si>
+  <si>
+    <t>获取销售量</t>
+  </si>
+  <si>
+    <t>int(销售总量)</t>
+  </si>
+  <si>
+    <t>DaoOrder.gettotalSalesRevenue</t>
+  </si>
+  <si>
+    <t>DaoUser.getUserNum</t>
+  </si>
+  <si>
+    <t>获取注册用户数</t>
+  </si>
+  <si>
+    <t>int(用户数目)</t>
+  </si>
+  <si>
+    <t>DaoBook.getProductNum</t>
+  </si>
+  <si>
+    <t>DaoOrder.getTotalOrderAmount</t>
+  </si>
+  <si>
+    <t>获取书籍总量</t>
+  </si>
+  <si>
+    <t>int(书籍总量)</t>
+  </si>
+  <si>
+    <t>获取订单总量</t>
+  </si>
+  <si>
+    <t>int(订单总量)</t>
+  </si>
+  <si>
+    <t>获取待审核订单数</t>
+  </si>
+  <si>
+    <t>int(待审核订单数)</t>
+  </si>
+  <si>
+    <t>DaoOrder.getUnauditedOrderAmount</t>
+  </si>
+  <si>
+    <t>DaoOrder.getFinishOrderAmount</t>
+  </si>
+  <si>
+    <t>获取完成的订单数</t>
+  </si>
+  <si>
+    <t>int(已完成订单数)</t>
+  </si>
+  <si>
+    <t>DaoOrder.getLatestOrders</t>
+  </si>
+  <si>
+    <t>获取最近的10次订单</t>
+  </si>
+  <si>
+    <t>List&lt;BeanOrder&gt;(最近10次的订单列表)</t>
   </si>
 </sst>
 </file>
@@ -868,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -992,42 +1066,40 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
+      <c r="A9" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>38</v>
@@ -1035,13 +1107,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>38</v>
@@ -1049,125 +1121,125 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>38</v>
@@ -1175,13 +1247,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>38</v>
@@ -1189,375 +1261,489 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
-        <v>85</v>
+      <c r="A25" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
-        <v>88</v>
+      <c r="A26" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>97</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>98</v>
+      <c r="A29" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
-        <v>101</v>
+      <c r="A30" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>104</v>
+      <c r="A31" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="4" t="s">
-        <v>157</v>
+      <c r="A33" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1" t="s">
+      <c r="D56" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1" t="s">
+      <c r="D57" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1" t="s">
+      <c r="D58" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -945,7 +945,7 @@
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="182">
   <si>
     <t>接口</t>
   </si>
@@ -483,12 +483,6 @@
     <t>修改等级</t>
   </si>
   <si>
-    <t>DaoLevel.judgeLevel</t>
-  </si>
-  <si>
-    <t>判断积分等级</t>
-  </si>
-  <si>
     <t>DaoBook.modifyBook</t>
   </si>
   <si>
@@ -496,9 +490,6 @@
   </si>
   <si>
     <t>Boolean(表示成功与否)</t>
-  </si>
-  <si>
-    <t>score:int</t>
   </si>
   <si>
     <t>获取销售总额</t>
@@ -942,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1067,14 +1058,14 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1289,31 +1280,31 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1321,50 +1312,50 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1495,99 +1486,107 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="4"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="A43" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="D45" s="1" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="A46" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>38</v>
@@ -1595,13 +1594,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>38</v>
@@ -1609,13 +1608,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>38</v>
@@ -1623,41 +1622,41 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="5" t="s">
-        <v>135</v>
+      <c r="A53" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>38</v>
@@ -1665,52 +1664,52 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="1" t="s">
-        <v>140</v>
+      <c r="A55" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="2" t="s">
-        <v>147</v>
+      <c r="A56" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="1" t="s">
-        <v>150</v>
+      <c r="A57" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>152</v>
@@ -1718,32 +1717,6 @@
       <c r="D57" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -935,13 +935,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.42578125" customWidth="1"/>
+    <col min="2" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1069,7 +1070,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1083,7 +1084,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1097,7 +1098,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1111,7 +1112,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1125,7 +1126,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1139,7 +1140,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1153,7 +1154,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="1" t="s">

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="181">
   <si>
     <t>接口</t>
   </si>
@@ -232,9 +232,6 @@
   </si>
   <si>
     <t>提交订单</t>
-  </si>
-  <si>
-    <t>userName:Stirng, order:BeanOrder</t>
   </si>
   <si>
     <t>DaoOrder.updateOrder</t>
@@ -935,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1059,14 +1056,14 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1224,42 +1221,42 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>38</v>
@@ -1267,45 +1264,45 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1313,75 +1310,75 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>38</v>
@@ -1389,13 +1386,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>38</v>
@@ -1403,83 +1400,83 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>38</v>
@@ -1487,65 +1484,65 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>38</v>
@@ -1553,27 +1550,27 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>38</v>
@@ -1581,13 +1578,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>38</v>
@@ -1595,13 +1592,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>38</v>
@@ -1609,13 +1606,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>38</v>
@@ -1623,27 +1620,27 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>38</v>
@@ -1651,13 +1648,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>38</v>
@@ -1665,13 +1662,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>38</v>
@@ -1679,13 +1676,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>38</v>
@@ -1693,13 +1690,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>38</v>
@@ -1707,13 +1704,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>38</v>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="182">
   <si>
     <t>接口</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>List&lt;BeanOrder&gt;(最近10次的订单列表)</t>
+  </si>
+  <si>
+    <t>DaoBook.get</t>
   </si>
 </sst>
 </file>
@@ -930,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1509,82 +1512,76 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="A43" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="D44" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="5" t="s">
+      <c r="D46" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>38</v>
@@ -1592,13 +1589,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>38</v>
@@ -1606,13 +1603,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>38</v>
@@ -1620,41 +1617,41 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>38</v>
@@ -1662,41 +1659,41 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2" t="s">
+      <c r="D55" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>38</v>
@@ -1704,15 +1701,29 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>38</v>
       </c>
     </row>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="184">
   <si>
     <t>接口</t>
   </si>
@@ -561,7 +561,13 @@
     <t>List&lt;BeanOrder&gt;(最近10次的订单列表)</t>
   </si>
   <si>
-    <t>DaoBook.get</t>
+    <t>DaoBook.getLatestBook</t>
+  </si>
+  <si>
+    <t>获取最新添加书籍10本</t>
+  </si>
+  <si>
+    <t>List&lt;BeanBook&gt;（书籍链表）</t>
   </si>
 </sst>
 </file>
@@ -933,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1070,42 +1076,34 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>38</v>
@@ -1113,13 +1111,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>38</v>
@@ -1127,489 +1125,469 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A18" s="5"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>161</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D26" s="1" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>172</v>
-      </c>
+      <c r="A29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>173</v>
-      </c>
+      <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="4" t="s">
-        <v>175</v>
+      <c r="A30" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A34" s="4"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>93</v>
+      <c r="A36" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>97</v>
+      <c r="A37" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="2" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="4" t="s">
+      <c r="D43" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="4" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
-        <v>116</v>
+      <c r="A46" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>145</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="5" t="s">
-        <v>122</v>
+      <c r="A49" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>38</v>
@@ -1617,113 +1595,169 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>38</v>
+        <v>142</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="5" t="s">
-        <v>130</v>
+      <c r="A52" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="D55" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="2" t="s">
-        <v>146</v>
+      <c r="A56" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="5" t="s">
+      <c r="D61" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>38</v>
       </c>
     </row>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -939,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1580,56 +1580,48 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="5" t="s">
+      <c r="D51" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>38</v>
@@ -1637,13 +1629,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>38</v>
@@ -1651,13 +1643,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>38</v>
@@ -1665,99 +1657,131 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1" t="s">
+      <c r="D58" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="5"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="1" t="s">
+      <c r="D60" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2" t="s">
+      <c r="D61" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="5" t="s">
+      <c r="D63" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="5" t="s">
+      <c r="D65" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>38</v>
       </c>
     </row>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="188">
   <si>
     <t>接口</t>
   </si>
@@ -568,6 +568,18 @@
   </si>
   <si>
     <t>List&lt;BeanBook&gt;（书籍链表）</t>
+  </si>
+  <si>
+    <t>DaoLevel.judgeLevel</t>
+  </si>
+  <si>
+    <t>判断积分等级</t>
+  </si>
+  <si>
+    <t>int:Score</t>
+  </si>
+  <si>
+    <t>BeanLevel()封装积分等级Bean</t>
   </si>
 </sst>
 </file>
@@ -939,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1783,6 +1795,20 @@
       </c>
       <c r="D66" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -954,7 +954,7 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -633,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -650,6 +650,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,7 +955,7 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1798,7 +1799,7 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" t="s">
+      <c r="A67" s="6" t="s">
         <v>184</v>
       </c>
       <c r="B67" s="1" t="s">

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="188">
   <si>
     <t>接口</t>
   </si>
@@ -952,15 +952,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" customWidth="1"/>
+    <col min="1" max="1" width="51.85546875" customWidth="1"/>
     <col min="2" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1338,87 +1338,93 @@
       <c r="A29" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>167</v>
+      <c r="A30" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="4" t="s">
-        <v>174</v>
+      <c r="A31" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>179</v>
-      </c>
+      <c r="A33" s="4"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>180</v>
-      </c>
+      <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="4"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="A34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>38</v>
@@ -1426,215 +1432,215 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2" t="s">
-        <v>90</v>
+      <c r="A38" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>97</v>
+      <c r="A40" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
-        <v>100</v>
+      <c r="A41" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="1" t="s">
-        <v>103</v>
+      <c r="A42" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="4" t="s">
-        <v>154</v>
+      <c r="A44" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="4" t="s">
-        <v>166</v>
+      <c r="A45" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>182</v>
-      </c>
+      <c r="A46" s="4"/>
+      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="A47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>112</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="A49" s="2"/>
+      <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="A50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="A51" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>38</v>
@@ -1642,13 +1648,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>38</v>
@@ -1656,13 +1662,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>38</v>
@@ -1670,112 +1676,112 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A58" s="5"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="5"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="A59" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="1" t="s">
-        <v>136</v>
+      <c r="A60" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="A62" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A63" s="2"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="2"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="A64" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>151</v>
@@ -1785,30 +1791,16 @@
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="5" t="s">
-        <v>152</v>
+      <c r="A66" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D67" s="1" t="s">
         <v>187</v>
       </c>
     </row>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="207">
   <si>
     <t>接口</t>
   </si>
@@ -580,6 +580,63 @@
   </si>
   <si>
     <t>BeanLevel()封装积分等级Bean</t>
+  </si>
+  <si>
+    <t>DaoDistrict.getDistrictById</t>
+  </si>
+  <si>
+    <t>返回地址列表</t>
+  </si>
+  <si>
+    <t>districtID:int(地区ID)</t>
+  </si>
+  <si>
+    <t>DaoComment.deleteComment</t>
+  </si>
+  <si>
+    <t>删除评论</t>
+  </si>
+  <si>
+    <t>id:int</t>
+  </si>
+  <si>
+    <t>Boolean()</t>
+  </si>
+  <si>
+    <t>DaoBook.deleteBook</t>
+  </si>
+  <si>
+    <t>删除书籍</t>
+  </si>
+  <si>
+    <t>DaoCatalog.getCatalogByID</t>
+  </si>
+  <si>
+    <t>DaoCatalog.deleteCatalog</t>
+  </si>
+  <si>
+    <t>删除目录</t>
+  </si>
+  <si>
+    <t>catalogID:int</t>
+  </si>
+  <si>
+    <t>通过CatalogID来获取Catalog详细信息</t>
+  </si>
+  <si>
+    <t>BeanCatalog</t>
+  </si>
+  <si>
+    <t>DaoUser.getUser</t>
+  </si>
+  <si>
+    <t>获取用户信息</t>
+  </si>
+  <si>
+    <t>BeanUser(用户信息Bean)</t>
+  </si>
+  <si>
+    <t>sign:int;req:BookRequire</t>
   </si>
 </sst>
 </file>
@@ -952,16 +1009,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="51.85546875" customWidth="1"/>
-    <col min="2" max="4" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="3" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1089,586 +1147,578 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A21" s="5"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="5" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5" t="s">
+      <c r="D26" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5" t="s">
+      <c r="D27" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D29" s="1" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="4" t="s">
-        <v>174</v>
+      <c r="A30" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
-        <v>175</v>
+      <c r="A31" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>178</v>
+      <c r="A32" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="4"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
-        <v>84</v>
+      <c r="A35" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>38</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A36" s="4"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>93</v>
+      <c r="A38" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>97</v>
+      <c r="A39" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2" t="s">
-        <v>107</v>
+      <c r="A42" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
-        <v>166</v>
+      <c r="A44" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D44" s="1" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C45" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="D45" s="1" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="4"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="A46" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>112</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" s="2"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>38</v>
@@ -1676,131 +1726,235 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="5" t="s">
-        <v>134</v>
+      <c r="A57" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="5"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="A58" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A60" s="5"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="A61" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="2" t="s">
-        <v>146</v>
+      <c r="A62" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>38</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="2"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="A63" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="5" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="5"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="6" t="s">
+      <c r="D73" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>187</v>
       </c>
     </row>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -318,18 +318,12 @@
     <t>int书籍搜索结果的条数</t>
   </si>
   <si>
-    <t>DaoBook.getCommentRowNumber</t>
-  </si>
-  <si>
     <t>获得指定书籍的评论总数</t>
   </si>
   <si>
     <t>int书籍评论总数</t>
   </si>
   <si>
-    <t>DaoBook.getComment</t>
-  </si>
-  <si>
     <t>获得书籍评论</t>
   </si>
   <si>
@@ -339,15 +333,6 @@
     <t>List&lt;BeanComment&gt;</t>
   </si>
   <si>
-    <t>DaoBook.publishComment</t>
-  </si>
-  <si>
-    <t>发表指定书籍的评论</t>
-  </si>
-  <si>
-    <t>comment:BeanComment</t>
-  </si>
-  <si>
     <t>DaoComment.getAllCommment</t>
   </si>
   <si>
@@ -637,6 +622,21 @@
   </si>
   <si>
     <t>sign:int;req:BookRequire</t>
+  </si>
+  <si>
+    <t>DaoComment.publishComment</t>
+  </si>
+  <si>
+    <t>发布评论</t>
+  </si>
+  <si>
+    <t>comment:BeanCommetn</t>
+  </si>
+  <si>
+    <t>DaoComment.getComment</t>
+  </si>
+  <si>
+    <t>DaoComment.getCommentRowNumber</t>
   </si>
 </sst>
 </file>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1136,28 +1136,28 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1182,13 +1182,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>34</v>
@@ -1404,74 +1404,74 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1544,7 +1544,7 @@
         <v>94</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>96</v>
@@ -1566,142 +1566,142 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
-        <v>103</v>
+      <c r="A44" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>105</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1" t="s">
-        <v>169</v>
-      </c>
+      <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D48" s="1" t="s">
-        <v>183</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="2" t="s">
-        <v>195</v>
+      <c r="A49" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="4"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="A50" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1712,13 +1712,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>38</v>
@@ -1726,27 +1726,27 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>38</v>
@@ -1754,13 +1754,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>38</v>
@@ -1768,13 +1768,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>38</v>
@@ -1788,13 +1788,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>38</v>
@@ -1802,27 +1802,27 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>38</v>
@@ -1830,27 +1830,27 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>38</v>
@@ -1864,13 +1864,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>38</v>
@@ -1878,13 +1878,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>38</v>
@@ -1898,13 +1898,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>38</v>
@@ -1918,13 +1918,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>38</v>
@@ -1932,13 +1932,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>38</v>
@@ -1946,16 +1946,16 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="204">
   <si>
     <t>接口</t>
   </si>
@@ -252,15 +252,6 @@
     <t>orderID:int</t>
   </si>
   <si>
-    <t>DaoOrder.getLatestOrder</t>
-  </si>
-  <si>
-    <t>获取用户最新的订单信息</t>
-  </si>
-  <si>
-    <t>BeanOrder(订单信息)</t>
-  </si>
-  <si>
     <t>DaoBook.getInventory</t>
   </si>
   <si>
@@ -582,9 +573,6 @@
     <t>删除评论</t>
   </si>
   <si>
-    <t>id:int</t>
-  </si>
-  <si>
     <t>Boolean()</t>
   </si>
   <si>
@@ -636,7 +624,10 @@
     <t>DaoComment.getComment</t>
   </si>
   <si>
-    <t>DaoComment.getCommentRowNumber</t>
+    <t>DaoComment.getCommentNumber</t>
+  </si>
+  <si>
+    <t>bookid:int; username:String</t>
   </si>
 </sst>
 </file>
@@ -1009,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1136,28 +1127,28 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1182,13 +1173,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>34</v>
@@ -1390,16 +1381,14 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1407,51 +1396,51 @@
         <v>154</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>162</v>
+      <c r="A32" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="4" t="s">
-        <v>169</v>
+      <c r="A33" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1463,22 +1452,24 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="A35" s="4"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="4"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="A36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
@@ -1488,10 +1479,10 @@
         <v>82</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1516,237 +1507,237 @@
         <v>88</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="1" t="s">
-        <v>97</v>
+      <c r="A42" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C45" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D45" s="1" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="A46" s="4"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
-        <v>206</v>
+      <c r="A48" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="1" t="s">
-        <v>205</v>
+      <c r="A49" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="4" t="s">
+      <c r="D51" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="2"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>38</v>
@@ -1754,64 +1745,64 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="A59" s="5"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="5"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="5" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>196</v>
+        <v>120</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>195</v>
+        <v>121</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>197</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1825,42 +1816,42 @@
         <v>124</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="5"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="5" t="s">
+      <c r="B66" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="5"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="5" t="s">
@@ -1877,44 +1868,44 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="2"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="2"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="5" t="s">
@@ -1924,38 +1915,24 @@
         <v>145</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="5" t="s">
-        <v>147</v>
+      <c r="A73" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="207">
   <si>
     <t>接口</t>
   </si>
@@ -628,6 +628,15 @@
   </si>
   <si>
     <t>bookid:int; username:String</t>
+  </si>
+  <si>
+    <t>DaoComment.getAverageRating</t>
+  </si>
+  <si>
+    <t>获取指定书籍评论平均分</t>
+  </si>
+  <si>
+    <t>int(评论平均分)</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1600,144 +1609,144 @@
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
-        <v>202</v>
+      <c r="A47" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="5" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>185</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1" t="s">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="2"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="5" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="2" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>38</v>
@@ -1745,174 +1754,174 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="5"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="A59" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A60" s="5"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>191</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="5" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>38</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="5"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A66" s="5"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="A68" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A71" s="2"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>143</v>
@@ -1922,16 +1931,30 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>179</v>
       </c>
     </row>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -643,7 +643,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,6 +669,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -690,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -708,6 +715,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1011,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1413,7 +1423,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1425,7 +1435,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1523,7 +1533,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1609,7 +1619,7 @@
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B47" s="1" t="s">

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="211">
   <si>
     <t>接口</t>
   </si>
@@ -637,6 +637,18 @@
   </si>
   <si>
     <t>int(评论平均分)</t>
+  </si>
+  <si>
+    <t>DaoFavorityFolder.get</t>
+  </si>
+  <si>
+    <t>获取指定用户收藏夹中或有内容</t>
+  </si>
+  <si>
+    <t>username:String;page:int;lines:int</t>
+  </si>
+  <si>
+    <t>List&lt;BeanFavorityFolder&gt;(封装FavorityFolder表的类)</t>
   </si>
 </sst>
 </file>
@@ -1019,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1901,51 +1913,51 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="A69" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="2"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A72" s="2"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>143</v>
@@ -1955,16 +1967,30 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>179</v>
       </c>
     </row>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="214">
   <si>
     <t>接口</t>
   </si>
@@ -294,9 +294,6 @@
     <t>搜索书籍</t>
   </si>
   <si>
-    <t>req:BookRequire</t>
-  </si>
-  <si>
     <t>List&lt;BeanBook&gt;</t>
   </si>
   <si>
@@ -649,6 +646,18 @@
   </si>
   <si>
     <t>List&lt;BeanFavorityFolder&gt;(封装FavorityFolder表的类)</t>
+  </si>
+  <si>
+    <t>获取指定书籍的销售总量、销售总价</t>
+  </si>
+  <si>
+    <t>DaoBook.getBookStatistic</t>
+  </si>
+  <si>
+    <t>BookStatisticsRequire</t>
+  </si>
+  <si>
+    <t>BeanBookStatistics</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1143,7 +1152,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1158,28 +1167,28 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1204,13 +1213,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>34</v>
@@ -1412,74 +1421,74 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1552,237 +1561,237 @@
         <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="4"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="A46" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>185</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1" t="s">
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D56" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>38</v>
@@ -1790,123 +1799,123 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="5"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="A60" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A61" s="5"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="5" t="s">
         <v>188</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="5" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="C66" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="5"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-    </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A67" s="5"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>38</v>
@@ -1914,84 +1923,98 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="2"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A73" s="2"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1620,7 +1620,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B45" s="1" t="s">

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -216,9 +216,6 @@
     <t>orderID:int;</t>
   </si>
   <si>
-    <t>Order(内有Order的detail)</t>
-  </si>
-  <si>
     <t>DaoOrder.getRowNumber</t>
   </si>
   <si>
@@ -658,6 +655,9 @@
   </si>
   <si>
     <t>BeanBookStatistics</t>
+  </si>
+  <si>
+    <t>List&lt;BeanOrderDetail&gt;</t>
   </si>
 </sst>
 </file>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1152,7 +1152,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1167,28 +1167,28 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1213,13 +1213,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>34</v>
@@ -1350,7 +1350,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1360,32 +1360,32 @@
         <v>65</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>38</v>
@@ -1393,13 +1393,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>38</v>
@@ -1407,88 +1407,88 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="B30" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="4" t="s">
+      <c r="B34" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1499,27 +1499,27 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>38</v>
@@ -1527,13 +1527,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>38</v>
@@ -1541,110 +1541,110 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1655,98 +1655,98 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="D51" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1757,13 +1757,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>38</v>
@@ -1771,27 +1771,27 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>38</v>
@@ -1799,13 +1799,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="C59" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>38</v>
@@ -1813,13 +1813,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>38</v>
@@ -1833,13 +1833,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>38</v>
@@ -1847,27 +1847,27 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>38</v>
@@ -1875,27 +1875,27 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="C66" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>38</v>
@@ -1909,13 +1909,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>38</v>
@@ -1923,13 +1923,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>38</v>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1957,13 +1957,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>38</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>38</v>
@@ -1991,13 +1991,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="C75" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>38</v>
@@ -2005,16 +2005,16 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -657,7 +657,7 @@
     <t>BeanBookStatistics</t>
   </si>
   <si>
-    <t>List&lt;BeanOrderDetail&gt;</t>
+    <t>BeanOrder</t>
   </si>
 </sst>
 </file>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="215">
   <si>
     <t>接口</t>
   </si>
@@ -658,6 +658,9 @@
   </si>
   <si>
     <t>BeanOrder</t>
+  </si>
+  <si>
+    <t>bookID:int;page:int;lines;</t>
   </si>
 </sst>
 </file>
@@ -1042,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1322,21 +1325,21 @@
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>214</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1364,7 +1367,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="1" t="s">

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -667,7 +667,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,13 +693,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -721,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -739,9 +732,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1045,7 +1035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
@@ -1557,7 +1547,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1571,7 +1561,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B41" s="1" t="s">

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="226">
   <si>
     <t>接口</t>
   </si>
@@ -682,13 +682,25 @@
   </si>
   <si>
     <t>List&lt;BeanLevel&gt;</t>
+  </si>
+  <si>
+    <t>DaoUser.updateScore</t>
+  </si>
+  <si>
+    <t>修改用户积分</t>
+  </si>
+  <si>
+    <t>int:score</t>
+  </si>
+  <si>
+    <t>boolean(表示更新是否成功)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,12 +726,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -741,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -759,7 +765,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1061,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1227,68 +1232,68 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>38</v>
@@ -1296,13 +1301,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>38</v>
@@ -1310,128 +1315,128 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A23" s="5"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>210</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>68</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>73</v>
@@ -1442,13 +1447,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>38</v>
@@ -1456,119 +1461,119 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="5" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D30" s="1" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
-        <v>164</v>
+      <c r="A33" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="4"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="A37" s="4"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>38</v>
@@ -1576,285 +1581,285 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D44" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>215</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="4" t="s">
-        <v>212</v>
+      <c r="A48" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="4"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="A50" s="4"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="5" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="4" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="2" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1" t="s">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="5" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>38</v>
@@ -1862,123 +1867,123 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="5"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="A63" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A64" s="5"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="5" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>38</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="5"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A70" s="5"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>38</v>
@@ -1986,64 +1991,64 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="2"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A76" s="2"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>141</v>
@@ -2053,28 +2058,42 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="7" t="s">
+    <row r="80" spans="1:4">
+      <c r="A80" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1" t="s">
+      <c r="C80" s="1"/>
+      <c r="D80" s="1" t="s">
         <v>221</v>
       </c>
     </row>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="229">
   <si>
     <t>接口</t>
   </si>
@@ -690,10 +690,19 @@
     <t>修改用户积分</t>
   </si>
   <si>
-    <t>int:score</t>
-  </si>
-  <si>
     <t>boolean(表示更新是否成功)</t>
+  </si>
+  <si>
+    <t>int:score, String username</t>
+  </si>
+  <si>
+    <t>DaoUser.updateQA</t>
+  </si>
+  <si>
+    <t>修改用户问题与答案</t>
+  </si>
+  <si>
+    <t>answer:String;question:String;username:String</t>
   </si>
 </sst>
 </file>
@@ -1066,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1232,82 +1241,80 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A17" s="5"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>38</v>
@@ -1315,13 +1322,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>38</v>
@@ -1329,128 +1336,128 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="5"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A24" s="5"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>210</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>68</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>73</v>
@@ -1461,13 +1468,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>38</v>
@@ -1475,119 +1482,119 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D31" s="1" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
-        <v>164</v>
+      <c r="A34" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="4"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="A38" s="4"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>38</v>
@@ -1595,285 +1602,285 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C45" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D45" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>215</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="4" t="s">
-        <v>212</v>
+      <c r="A49" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="4"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="A51" s="4"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="5" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="4" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1" t="s">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="5" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>38</v>
@@ -1881,123 +1888,123 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="5"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="A64" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A65" s="5"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="5" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>38</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="5"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A71" s="5"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>38</v>
@@ -2005,64 +2012,64 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="2"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A77" s="2"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>141</v>
@@ -2072,28 +2079,42 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="6" t="s">
-        <v>174</v>
+      <c r="A79" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1" t="s">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1" t="s">
         <v>221</v>
       </c>
     </row>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="230">
   <si>
     <t>接口</t>
   </si>
@@ -645,9 +645,6 @@
     <t>List&lt;BeanFavorityFolder&gt;(封装FavorityFolder表的类)</t>
   </si>
   <si>
-    <t>BeanBookStatistics</t>
-  </si>
-  <si>
     <t>BeanOrder</t>
   </si>
   <si>
@@ -666,9 +663,6 @@
     <t>int(销量)</t>
   </si>
   <si>
-    <t>获取指定书籍统计数据</t>
-  </si>
-  <si>
     <t>DaoUser.getSearchNum</t>
   </si>
   <si>
@@ -703,6 +697,15 @@
   </si>
   <si>
     <t>answer:String;question:String;username:String</t>
+  </si>
+  <si>
+    <t>BookStatisticsRequire</t>
+  </si>
+  <si>
+    <t>List&lt;BeanBookStatistics&gt;</t>
+  </si>
+  <si>
+    <t>获取符合指定条件的书籍统计数据</t>
   </si>
 </sst>
 </file>
@@ -1077,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1227,11 +1230,11 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
-        <v>217</v>
+      <c r="A11" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>29</v>
@@ -1242,27 +1245,27 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1404,7 +1407,7 @@
         <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>58</v>
@@ -1435,7 +1438,7 @@
         <v>65</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1710,30 +1713,30 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1813,7 +1816,7 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -2108,14 +2111,14 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="232">
   <si>
     <t>接口</t>
   </si>
@@ -706,6 +706,12 @@
   </si>
   <si>
     <t>获取符合指定条件的书籍统计数据</t>
+  </si>
+  <si>
+    <t>DaoBook.getStatisticsNum</t>
+  </si>
+  <si>
+    <t>获取书籍统计数据条数</t>
   </si>
 </sst>
 </file>
@@ -1078,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1726,7 +1732,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1740,164 +1746,164 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="4"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="A51" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="A52" s="4"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="5" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>99</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>183</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1" t="s">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="2"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="5" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="2" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>38</v>
@@ -1905,123 +1911,123 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="5"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="A65" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A66" s="5"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="5" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>38</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="5"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A72" s="5"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>38</v>
@@ -2029,64 +2035,64 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A78" s="2"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>141</v>
@@ -2096,28 +2102,42 @@
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="6" t="s">
-        <v>174</v>
+      <c r="A80" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1" t="s">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="s">
         <v>219</v>
       </c>
     </row>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -1086,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="235">
   <si>
     <t>接口</t>
   </si>
@@ -712,6 +712,15 @@
   </si>
   <si>
     <t>获取书籍统计数据条数</t>
+  </si>
+  <si>
+    <t>获取当天订单个数</t>
+  </si>
+  <si>
+    <t>int(订单数目)</t>
+  </si>
+  <si>
+    <t>DaoOrder.getTodayOrderNum</t>
   </si>
 </sst>
 </file>
@@ -1084,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1576,48 +1585,46 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="4"/>
-      <c r="B38" s="1"/>
+      <c r="A38" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="A39" s="4"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>38</v>
@@ -1625,299 +1632,299 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D46" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="A53" s="4"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="5" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>99</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>183</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1" t="s">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="2"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="5" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="2" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>38</v>
@@ -1925,123 +1932,123 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="5"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="A66" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A67" s="5"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="5" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>38</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="5"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A73" s="5"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>38</v>
@@ -2049,64 +2056,64 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="2"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-    </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A79" s="2"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>141</v>
@@ -2116,28 +2123,42 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="6" t="s">
-        <v>174</v>
+      <c r="A81" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1" t="s">
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="s">
         <v>219</v>
       </c>
     </row>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="239">
   <si>
     <t>接口</t>
   </si>
@@ -721,6 +721,18 @@
   </si>
   <si>
     <t>DaoOrder.getTodayOrderNum</t>
+  </si>
+  <si>
+    <t>DaoBook.getRandBooks</t>
+  </si>
+  <si>
+    <t>获取随即书籍</t>
+  </si>
+  <si>
+    <t>list:List&lt;Integer&gt;;num:int</t>
+  </si>
+  <si>
+    <t>List&lt;Integer&gt;(书籍ID列表)</t>
   </si>
 </sst>
 </file>
@@ -1093,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1781,164 +1793,164 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="A53" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="A54" s="4"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="5" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>99</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>183</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1" t="s">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="2"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="5" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2" t="s">
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>38</v>
@@ -1946,123 +1958,123 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="5"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="A67" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A68" s="5"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="5" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>38</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="5"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A74" s="5"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>38</v>
@@ -2070,64 +2082,64 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="2"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-    </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A80" s="2"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>141</v>
@@ -2137,28 +2149,42 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="6" t="s">
-        <v>174</v>
+      <c r="A82" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1" t="s">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="s">
         <v>219</v>
       </c>
     </row>

--- a/doc/DBI.xlsx
+++ b/doc/DBI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="242">
   <si>
     <t>接口</t>
   </si>
@@ -733,6 +733,15 @@
   </si>
   <si>
     <t>List&lt;Integer&gt;(书籍ID列表)</t>
+  </si>
+  <si>
+    <t>DaoAdmin.updatePassword</t>
+  </si>
+  <si>
+    <t>修改管理员密码</t>
+  </si>
+  <si>
+    <t>adminName:String;oldPwd;String;newPwd:String</t>
   </si>
 </sst>
 </file>
@@ -1105,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2129,31 +2138,31 @@
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="2"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="A80" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A81" s="2"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>141</v>
@@ -2163,28 +2172,42 @@
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="6" t="s">
-        <v>174</v>
+      <c r="A83" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1" t="s">
+      <c r="C85" s="1"/>
+      <c r="D85" s="1" t="s">
         <v>219</v>
       </c>
     </row>
